--- a/Plugin/tayho360/admin/governanceAgencys/Governance_Agencys.xlsx
+++ b/Plugin/tayho360/admin/governanceAgencys/Governance_Agencys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C35B2E-9B7A-C548-B89F-FFD9BFF38A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5E662-7A87-8E4F-A8F0-DF618AE9F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{2ADEE1DF-A1DB-DD47-AE0D-27A624D234A1}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{2ADEE1DF-A1DB-DD47-AE0D-27A624D234A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Tên cơ quan hành chính</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Ảnh minh họa</t>
   </si>
   <si>
-    <t>Ảnh khác 1</t>
-  </si>
-  <si>
     <t>Ảnh khác 2</t>
   </si>
   <si>
@@ -98,13 +95,40 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>test cơ quan hành chính</t>
+  </si>
+  <si>
+    <t>46 ngõ 7 Thái Hà</t>
+  </si>
+  <si>
+    <t>0816560000</t>
+  </si>
+  <si>
+    <t>tranmanhbk179@gmail.com</t>
+  </si>
+  <si>
+    <t>https://tayho360.vn/upload/admin/images/Qu%E1%BA%ADn%20%E1%BB%A6y%20qu%E1%BA%ADn%20T%C3%A2y%20H%E1%BB%93%201.JPG(1).jpg</t>
+  </si>
+  <si>
+    <t>105.81062301643816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.069046654876725 </t>
+  </si>
+  <si>
+    <t>https://vingg.vn/listtour/tayho360/</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +152,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,23 +178,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,35 +511,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6911DB51-2845-CF4C-B401-0BB672A9CF1D}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" customWidth="1"/>
-    <col min="17" max="18" width="20.83203125" customWidth="1"/>
-    <col min="19" max="19" width="36.5" customWidth="1"/>
-    <col min="20" max="20" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="27.6640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="20.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="36.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.6640625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -515,31 +552,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -557,11 +594,67 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="238" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F22B7D72-DA28-4B46-A752-76C1CBCA4906}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>